--- a/Zeus/data/TSP/Problems/fri26.xlsx
+++ b/Zeus/data/TSP/Problems/fri26.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlm1026\Desktop\New folder\EdgeWeightHeaders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Davis/Desktop/full-matrices/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="31220" windowHeight="20620"/>
   </bookViews>
   <sheets>
     <sheet name="fri26" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -66,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -903,16 +911,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:AA60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -920,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -928,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -942,7 +950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -950,7 +958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -958,7 +966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -966,25 +974,172 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>83</v>
+      </c>
+      <c r="C8">
+        <v>93</v>
+      </c>
+      <c r="D8">
+        <v>129</v>
+      </c>
+      <c r="E8">
+        <v>133</v>
+      </c>
+      <c r="F8">
+        <v>139</v>
+      </c>
+      <c r="G8">
+        <v>151</v>
+      </c>
+      <c r="H8">
+        <v>169</v>
+      </c>
+      <c r="I8">
+        <v>135</v>
+      </c>
+      <c r="J8">
+        <v>114</v>
+      </c>
+      <c r="K8">
+        <v>110</v>
+      </c>
+      <c r="L8">
+        <v>98</v>
+      </c>
+      <c r="M8">
+        <v>99</v>
+      </c>
+      <c r="N8">
+        <v>95</v>
+      </c>
+      <c r="O8">
+        <v>81</v>
+      </c>
+      <c r="P8">
+        <v>152</v>
+      </c>
+      <c r="Q8">
+        <v>159</v>
+      </c>
+      <c r="R8">
+        <v>181</v>
+      </c>
+      <c r="S8">
+        <v>172</v>
+      </c>
+      <c r="T8">
+        <v>185</v>
+      </c>
+      <c r="U8">
+        <v>147</v>
+      </c>
+      <c r="V8">
+        <v>157</v>
+      </c>
+      <c r="W8">
+        <v>185</v>
+      </c>
+      <c r="X8">
+        <v>220</v>
+      </c>
+      <c r="Y8">
+        <v>127</v>
+      </c>
+      <c r="Z8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>83</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <v>64</v>
+      </c>
+      <c r="G9">
+        <v>91</v>
+      </c>
+      <c r="H9">
+        <v>116</v>
+      </c>
+      <c r="I9">
+        <v>93</v>
+      </c>
+      <c r="J9">
+        <v>84</v>
+      </c>
+      <c r="K9">
+        <v>95</v>
+      </c>
+      <c r="L9">
+        <v>98</v>
+      </c>
+      <c r="M9">
+        <v>89</v>
+      </c>
+      <c r="N9">
+        <v>68</v>
+      </c>
+      <c r="O9">
+        <v>67</v>
+      </c>
+      <c r="P9">
+        <v>127</v>
+      </c>
+      <c r="Q9">
+        <v>156</v>
+      </c>
+      <c r="R9">
+        <v>175</v>
+      </c>
+      <c r="S9">
+        <v>152</v>
+      </c>
+      <c r="T9">
+        <v>165</v>
+      </c>
+      <c r="U9">
+        <v>160</v>
+      </c>
+      <c r="V9">
+        <v>180</v>
+      </c>
+      <c r="W9">
+        <v>223</v>
+      </c>
+      <c r="X9">
+        <v>268</v>
+      </c>
+      <c r="Y9">
+        <v>179</v>
+      </c>
+      <c r="Z9">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>93</v>
       </c>
@@ -994,8 +1149,77 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>59</v>
+      </c>
+      <c r="H10">
+        <v>81</v>
+      </c>
+      <c r="I10">
+        <v>54</v>
+      </c>
+      <c r="J10">
+        <v>44</v>
+      </c>
+      <c r="K10">
+        <v>58</v>
+      </c>
+      <c r="L10">
+        <v>64</v>
+      </c>
+      <c r="M10">
+        <v>54</v>
+      </c>
+      <c r="N10">
+        <v>31</v>
+      </c>
+      <c r="O10">
+        <v>36</v>
+      </c>
+      <c r="P10">
+        <v>86</v>
+      </c>
+      <c r="Q10">
+        <v>117</v>
+      </c>
+      <c r="R10">
+        <v>135</v>
+      </c>
+      <c r="S10">
+        <v>112</v>
+      </c>
+      <c r="T10">
+        <v>125</v>
+      </c>
+      <c r="U10">
+        <v>124</v>
+      </c>
+      <c r="V10">
+        <v>147</v>
+      </c>
+      <c r="W10">
+        <v>193</v>
+      </c>
+      <c r="X10">
+        <v>241</v>
+      </c>
+      <c r="Y10">
+        <v>157</v>
+      </c>
+      <c r="Z10">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>129</v>
       </c>
@@ -1008,8 +1232,74 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>46</v>
+      </c>
+      <c r="H11">
+        <v>72</v>
+      </c>
+      <c r="I11">
+        <v>65</v>
+      </c>
+      <c r="J11">
+        <v>70</v>
+      </c>
+      <c r="K11">
+        <v>88</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>89</v>
+      </c>
+      <c r="N11">
+        <v>66</v>
+      </c>
+      <c r="O11">
+        <v>76</v>
+      </c>
+      <c r="P11">
+        <v>102</v>
+      </c>
+      <c r="Q11">
+        <v>142</v>
+      </c>
+      <c r="R11">
+        <v>156</v>
+      </c>
+      <c r="S11">
+        <v>127</v>
+      </c>
+      <c r="T11">
+        <v>139</v>
+      </c>
+      <c r="U11">
+        <v>155</v>
+      </c>
+      <c r="V11">
+        <v>180</v>
+      </c>
+      <c r="W11">
+        <v>228</v>
+      </c>
+      <c r="X11">
+        <v>278</v>
+      </c>
+      <c r="Y11">
+        <v>197</v>
+      </c>
+      <c r="Z11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>133</v>
       </c>
@@ -1025,8 +1315,71 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>61</v>
+      </c>
+      <c r="I12">
+        <v>55</v>
+      </c>
+      <c r="J12">
+        <v>62</v>
+      </c>
+      <c r="K12">
+        <v>82</v>
+      </c>
+      <c r="L12">
+        <v>95</v>
+      </c>
+      <c r="M12">
+        <v>84</v>
+      </c>
+      <c r="N12">
+        <v>62</v>
+      </c>
+      <c r="O12">
+        <v>74</v>
+      </c>
+      <c r="P12">
+        <v>93</v>
+      </c>
+      <c r="Q12">
+        <v>133</v>
+      </c>
+      <c r="R12">
+        <v>146</v>
+      </c>
+      <c r="S12">
+        <v>117</v>
+      </c>
+      <c r="T12">
+        <v>128</v>
+      </c>
+      <c r="U12">
+        <v>148</v>
+      </c>
+      <c r="V12">
+        <v>173</v>
+      </c>
+      <c r="W12">
+        <v>222</v>
+      </c>
+      <c r="X12">
+        <v>272</v>
+      </c>
+      <c r="Y12">
+        <v>194</v>
+      </c>
+      <c r="Z12">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>139</v>
       </c>
@@ -1045,8 +1398,68 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>65</v>
+      </c>
+      <c r="I13">
+        <v>63</v>
+      </c>
+      <c r="J13">
+        <v>71</v>
+      </c>
+      <c r="K13">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>103</v>
+      </c>
+      <c r="M13">
+        <v>92</v>
+      </c>
+      <c r="N13">
+        <v>71</v>
+      </c>
+      <c r="O13">
+        <v>82</v>
+      </c>
+      <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13">
+        <v>141</v>
+      </c>
+      <c r="R13">
+        <v>153</v>
+      </c>
+      <c r="S13">
+        <v>124</v>
+      </c>
+      <c r="T13">
+        <v>135</v>
+      </c>
+      <c r="U13">
+        <v>156</v>
+      </c>
+      <c r="V13">
+        <v>181</v>
+      </c>
+      <c r="W13">
+        <v>230</v>
+      </c>
+      <c r="X13">
+        <v>280</v>
+      </c>
+      <c r="Y13">
+        <v>202</v>
+      </c>
+      <c r="Z13">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>151</v>
       </c>
@@ -1068,8 +1481,65 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>26</v>
+      </c>
+      <c r="I14">
+        <v>34</v>
+      </c>
+      <c r="J14">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>71</v>
+      </c>
+      <c r="L14">
+        <v>88</v>
+      </c>
+      <c r="M14">
+        <v>77</v>
+      </c>
+      <c r="N14">
+        <v>63</v>
+      </c>
+      <c r="O14">
+        <v>78</v>
+      </c>
+      <c r="P14">
+        <v>66</v>
+      </c>
+      <c r="Q14">
+        <v>110</v>
+      </c>
+      <c r="R14">
+        <v>119</v>
+      </c>
+      <c r="S14">
+        <v>88</v>
+      </c>
+      <c r="T14">
+        <v>98</v>
+      </c>
+      <c r="U14">
+        <v>130</v>
+      </c>
+      <c r="V14">
+        <v>156</v>
+      </c>
+      <c r="W14">
+        <v>206</v>
+      </c>
+      <c r="X14">
+        <v>257</v>
+      </c>
+      <c r="Y14">
+        <v>188</v>
+      </c>
+      <c r="Z14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>169</v>
       </c>
@@ -1094,8 +1564,62 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>37</v>
+      </c>
+      <c r="J15">
+        <v>59</v>
+      </c>
+      <c r="K15">
+        <v>75</v>
+      </c>
+      <c r="L15">
+        <v>92</v>
+      </c>
+      <c r="M15">
+        <v>83</v>
+      </c>
+      <c r="N15">
+        <v>76</v>
+      </c>
+      <c r="O15">
+        <v>91</v>
+      </c>
+      <c r="P15">
+        <v>54</v>
+      </c>
+      <c r="Q15">
+        <v>98</v>
+      </c>
+      <c r="R15">
+        <v>103</v>
+      </c>
+      <c r="S15">
+        <v>70</v>
+      </c>
+      <c r="T15">
+        <v>78</v>
+      </c>
+      <c r="U15">
+        <v>122</v>
+      </c>
+      <c r="V15">
+        <v>148</v>
+      </c>
+      <c r="W15">
+        <v>198</v>
+      </c>
+      <c r="X15">
+        <v>250</v>
+      </c>
+      <c r="Y15">
+        <v>188</v>
+      </c>
+      <c r="Z15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>135</v>
       </c>
@@ -1123,8 +1647,59 @@
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>22</v>
+      </c>
+      <c r="K16">
+        <v>39</v>
+      </c>
+      <c r="L16">
+        <v>56</v>
+      </c>
+      <c r="M16">
+        <v>47</v>
+      </c>
+      <c r="N16">
+        <v>40</v>
+      </c>
+      <c r="O16">
+        <v>55</v>
+      </c>
+      <c r="P16">
+        <v>37</v>
+      </c>
+      <c r="Q16">
+        <v>78</v>
+      </c>
+      <c r="R16">
+        <v>91</v>
+      </c>
+      <c r="S16">
+        <v>62</v>
+      </c>
+      <c r="T16">
+        <v>74</v>
+      </c>
+      <c r="U16">
+        <v>96</v>
+      </c>
+      <c r="V16">
+        <v>122</v>
+      </c>
+      <c r="W16">
+        <v>172</v>
+      </c>
+      <c r="X16">
+        <v>223</v>
+      </c>
+      <c r="Y16">
+        <v>155</v>
+      </c>
+      <c r="Z16">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>114</v>
       </c>
@@ -1155,8 +1730,56 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>36</v>
+      </c>
+      <c r="M17">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>34</v>
+      </c>
+      <c r="P17">
+        <v>43</v>
+      </c>
+      <c r="Q17">
+        <v>74</v>
+      </c>
+      <c r="R17">
+        <v>91</v>
+      </c>
+      <c r="S17">
+        <v>68</v>
+      </c>
+      <c r="T17">
+        <v>82</v>
+      </c>
+      <c r="U17">
+        <v>86</v>
+      </c>
+      <c r="V17">
+        <v>111</v>
+      </c>
+      <c r="W17">
+        <v>160</v>
+      </c>
+      <c r="X17">
+        <v>210</v>
+      </c>
+      <c r="Y17">
+        <v>136</v>
+      </c>
+      <c r="Z17">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>110</v>
       </c>
@@ -1190,8 +1813,53 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>18</v>
+      </c>
+      <c r="M18">
+        <v>11</v>
+      </c>
+      <c r="N18">
+        <v>27</v>
+      </c>
+      <c r="O18">
+        <v>32</v>
+      </c>
+      <c r="P18">
+        <v>42</v>
+      </c>
+      <c r="Q18">
+        <v>61</v>
+      </c>
+      <c r="R18">
+        <v>80</v>
+      </c>
+      <c r="S18">
+        <v>64</v>
+      </c>
+      <c r="T18">
+        <v>77</v>
+      </c>
+      <c r="U18">
+        <v>68</v>
+      </c>
+      <c r="V18">
+        <v>92</v>
+      </c>
+      <c r="W18">
+        <v>140</v>
+      </c>
+      <c r="X18">
+        <v>190</v>
+      </c>
+      <c r="Y18">
+        <v>116</v>
+      </c>
+      <c r="Z18">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>98</v>
       </c>
@@ -1228,8 +1896,50 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <v>34</v>
+      </c>
+      <c r="O19">
+        <v>31</v>
+      </c>
+      <c r="P19">
+        <v>56</v>
+      </c>
+      <c r="Q19">
+        <v>63</v>
+      </c>
+      <c r="R19">
+        <v>85</v>
+      </c>
+      <c r="S19">
+        <v>75</v>
+      </c>
+      <c r="T19">
+        <v>87</v>
+      </c>
+      <c r="U19">
+        <v>62</v>
+      </c>
+      <c r="V19">
+        <v>83</v>
+      </c>
+      <c r="W19">
+        <v>129</v>
+      </c>
+      <c r="X19">
+        <v>178</v>
+      </c>
+      <c r="Y19">
+        <v>100</v>
+      </c>
+      <c r="Z19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>99</v>
       </c>
@@ -1269,8 +1979,47 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>23</v>
+      </c>
+      <c r="O20">
+        <v>24</v>
+      </c>
+      <c r="P20">
+        <v>53</v>
+      </c>
+      <c r="Q20">
+        <v>68</v>
+      </c>
+      <c r="R20">
+        <v>89</v>
+      </c>
+      <c r="S20">
+        <v>74</v>
+      </c>
+      <c r="T20">
+        <v>87</v>
+      </c>
+      <c r="U20">
+        <v>71</v>
+      </c>
+      <c r="V20">
+        <v>93</v>
+      </c>
+      <c r="W20">
+        <v>140</v>
+      </c>
+      <c r="X20">
+        <v>189</v>
+      </c>
+      <c r="Y20">
+        <v>111</v>
+      </c>
+      <c r="Z20">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>95</v>
       </c>
@@ -1313,8 +2062,44 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>15</v>
+      </c>
+      <c r="P21">
+        <v>62</v>
+      </c>
+      <c r="Q21">
+        <v>87</v>
+      </c>
+      <c r="R21">
+        <v>106</v>
+      </c>
+      <c r="S21">
+        <v>87</v>
+      </c>
+      <c r="T21">
+        <v>100</v>
+      </c>
+      <c r="U21">
+        <v>93</v>
+      </c>
+      <c r="V21">
+        <v>116</v>
+      </c>
+      <c r="W21">
+        <v>163</v>
+      </c>
+      <c r="X21">
+        <v>212</v>
+      </c>
+      <c r="Y21">
+        <v>132</v>
+      </c>
+      <c r="Z21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>81</v>
       </c>
@@ -1360,8 +2145,41 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>73</v>
+      </c>
+      <c r="Q22">
+        <v>92</v>
+      </c>
+      <c r="R22">
+        <v>112</v>
+      </c>
+      <c r="S22">
+        <v>96</v>
+      </c>
+      <c r="T22">
+        <v>109</v>
+      </c>
+      <c r="U22">
+        <v>93</v>
+      </c>
+      <c r="V22">
+        <v>113</v>
+      </c>
+      <c r="W22">
+        <v>158</v>
+      </c>
+      <c r="X22">
+        <v>205</v>
+      </c>
+      <c r="Y22">
+        <v>122</v>
+      </c>
+      <c r="Z22">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>152</v>
       </c>
@@ -1410,8 +2228,38 @@
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>44</v>
+      </c>
+      <c r="R23">
+        <v>54</v>
+      </c>
+      <c r="S23">
+        <v>26</v>
+      </c>
+      <c r="T23">
+        <v>39</v>
+      </c>
+      <c r="U23">
+        <v>68</v>
+      </c>
+      <c r="V23">
+        <v>94</v>
+      </c>
+      <c r="W23">
+        <v>144</v>
+      </c>
+      <c r="X23">
+        <v>196</v>
+      </c>
+      <c r="Y23">
+        <v>139</v>
+      </c>
+      <c r="Z23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>159</v>
       </c>
@@ -1463,8 +2311,35 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>22</v>
+      </c>
+      <c r="S24">
+        <v>34</v>
+      </c>
+      <c r="T24">
+        <v>38</v>
+      </c>
+      <c r="U24">
+        <v>30</v>
+      </c>
+      <c r="V24">
+        <v>53</v>
+      </c>
+      <c r="W24">
+        <v>102</v>
+      </c>
+      <c r="X24">
+        <v>154</v>
+      </c>
+      <c r="Y24">
+        <v>109</v>
+      </c>
+      <c r="Z24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>181</v>
       </c>
@@ -1519,8 +2394,32 @@
       <c r="R25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>33</v>
+      </c>
+      <c r="T25">
+        <v>29</v>
+      </c>
+      <c r="U25">
+        <v>46</v>
+      </c>
+      <c r="V25">
+        <v>64</v>
+      </c>
+      <c r="W25">
+        <v>107</v>
+      </c>
+      <c r="X25">
+        <v>157</v>
+      </c>
+      <c r="Y25">
+        <v>125</v>
+      </c>
+      <c r="Z25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>172</v>
       </c>
@@ -1578,8 +2477,29 @@
       <c r="S26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <v>13</v>
+      </c>
+      <c r="U26">
+        <v>63</v>
+      </c>
+      <c r="V26">
+        <v>87</v>
+      </c>
+      <c r="W26">
+        <v>135</v>
+      </c>
+      <c r="X26">
+        <v>186</v>
+      </c>
+      <c r="Y26">
+        <v>141</v>
+      </c>
+      <c r="Z26">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>185</v>
       </c>
@@ -1640,8 +2560,26 @@
       <c r="T27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <v>68</v>
+      </c>
+      <c r="V27">
+        <v>90</v>
+      </c>
+      <c r="W27">
+        <v>136</v>
+      </c>
+      <c r="X27">
+        <v>186</v>
+      </c>
+      <c r="Y27">
+        <v>148</v>
+      </c>
+      <c r="Z27">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>147</v>
       </c>
@@ -1705,8 +2643,23 @@
       <c r="U28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V28">
+        <v>26</v>
+      </c>
+      <c r="W28">
+        <v>77</v>
+      </c>
+      <c r="X28">
+        <v>128</v>
+      </c>
+      <c r="Y28">
+        <v>80</v>
+      </c>
+      <c r="Z28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>157</v>
       </c>
@@ -1773,8 +2726,20 @@
       <c r="V29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <v>50</v>
+      </c>
+      <c r="X29">
+        <v>102</v>
+      </c>
+      <c r="Y29">
+        <v>65</v>
+      </c>
+      <c r="Z29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>185</v>
       </c>
@@ -1844,8 +2809,17 @@
       <c r="W30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X30">
+        <v>51</v>
+      </c>
+      <c r="Y30">
+        <v>64</v>
+      </c>
+      <c r="Z30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>220</v>
       </c>
@@ -1918,8 +2892,14 @@
       <c r="X31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y31">
+        <v>93</v>
+      </c>
+      <c r="Z31">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>127</v>
       </c>
@@ -1995,8 +2975,11 @@
       <c r="Y32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>181</v>
       </c>
@@ -2076,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
